--- a/runs/run591/NotionalETEOutput591.xlsx
+++ b/runs/run591/NotionalETEOutput591.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND2_State_Update</t>
+    <t>Missile_BRAVER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2_116.MISSILE_HIGHWIND2_116</t>
+    <t>MISSILE_BRAVER3_260.MISSILE_BRAVER3_260</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2</t>
+    <t>MISSILE_BRAVER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1428.541610862824</v>
+        <v>-1516.737764067489</v>
       </c>
       <c r="J2">
-        <v>1980.104967288042</v>
+        <v>2086.857795622105</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1399.64024970906</v>
+        <v>-1454.729174963616</v>
       </c>
       <c r="J3">
-        <v>1936.749362119159</v>
+        <v>1951.76225590308</v>
       </c>
       <c r="K3">
-        <v>297.8967326343798</v>
+        <v>291.9804825370458</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1494.686354809863</v>
+        <v>-1389.512348436479</v>
       </c>
       <c r="J4">
-        <v>1929.489839980003</v>
+        <v>1986.150989634861</v>
       </c>
       <c r="K4">
-        <v>621.501008700885</v>
+        <v>612.1407996229227</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1459.990272135253</v>
+        <v>-1415.370772088266</v>
       </c>
       <c r="J5">
-        <v>1843.204465402204</v>
+        <v>1875.917809636109</v>
       </c>
       <c r="K5">
-        <v>899.9698052568152</v>
+        <v>835.2815853530724</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1384.623266282775</v>
+        <v>-1365.311167235116</v>
       </c>
       <c r="J6">
-        <v>1825.352170519296</v>
+        <v>1808.644096342787</v>
       </c>
       <c r="K6">
-        <v>1123.313887164702</v>
+        <v>1131.609662542319</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1297.383010600202</v>
+        <v>-1346.459580433764</v>
       </c>
       <c r="J7">
-        <v>1732.116809210873</v>
+        <v>1833.256863456354</v>
       </c>
       <c r="K7">
-        <v>1341.875980705966</v>
+        <v>1387.253509603412</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1332.662712997216</v>
+        <v>-1319.929113411567</v>
       </c>
       <c r="J8">
-        <v>1623.649153741431</v>
+        <v>1759.950723129239</v>
       </c>
       <c r="K8">
-        <v>1562.321737577267</v>
+        <v>1664.699305702733</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.3772709981965</v>
+        <v>-102.6701490466364</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1238.259614965899</v>
+        <v>-1309.76684089694</v>
       </c>
       <c r="J9">
-        <v>1705.914466832738</v>
+        <v>1602.86417900388</v>
       </c>
       <c r="K9">
-        <v>1800.277720620435</v>
+        <v>1747.430461062023</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>214.6472915023162</v>
+        <v>217.5089170531749</v>
       </c>
       <c r="G10">
-        <v>-79.94806703921519</v>
+        <v>-84.8544155348614</v>
       </c>
       <c r="H10">
-        <v>848.6289822301291</v>
+        <v>878.4280803520558</v>
       </c>
       <c r="I10">
-        <v>-1241.416106165475</v>
+        <v>-1274.747294183612</v>
       </c>
       <c r="J10">
-        <v>1530.667701097214</v>
+        <v>1601.533313700431</v>
       </c>
       <c r="K10">
-        <v>1925.873346494245</v>
+        <v>1933.035914900462</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>176.1969103429052</v>
+        <v>166.2006307186736</v>
       </c>
       <c r="G11">
-        <v>-65.4812999408101</v>
+        <v>-68.77830295990242</v>
       </c>
       <c r="H11">
-        <v>1078.754928903853</v>
+        <v>1099.744803751748</v>
       </c>
       <c r="I11">
-        <v>-1170.912488773942</v>
+        <v>-1193.703404426062</v>
       </c>
       <c r="J11">
-        <v>1518.390049096527</v>
+        <v>1609.035096978232</v>
       </c>
       <c r="K11">
-        <v>2234.136040239189</v>
+        <v>2098.816996966522</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.9932005013275</v>
+        <v>134.6462514829098</v>
       </c>
       <c r="G12">
-        <v>-49.91593512497813</v>
+        <v>-51.47898577823165</v>
       </c>
       <c r="H12">
-        <v>1167.904574593215</v>
+        <v>1157.649091519515</v>
       </c>
       <c r="I12">
-        <v>-1194.430353551152</v>
+        <v>-1125.709896107777</v>
       </c>
       <c r="J12">
-        <v>1478.487107521176</v>
+        <v>1540.354074089435</v>
       </c>
       <c r="K12">
-        <v>2255.841702014277</v>
+        <v>2468.401092523082</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.4200969940892</v>
+        <v>121.731801025276</v>
       </c>
       <c r="G13">
-        <v>-32.34110315385524</v>
+        <v>-34.39671528197932</v>
       </c>
       <c r="H13">
-        <v>1280.581491034451</v>
+        <v>1280.059129544132</v>
       </c>
       <c r="I13">
-        <v>-1106.195752364556</v>
+        <v>-1161.873160331838</v>
       </c>
       <c r="J13">
-        <v>1530.340370086553</v>
+        <v>1510.316150475076</v>
       </c>
       <c r="K13">
-        <v>2443.126554561182</v>
+        <v>2557.88085335463</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>104.3962718498961</v>
+        <v>104.6834810554023</v>
       </c>
       <c r="G14">
-        <v>-16.84578708774749</v>
+        <v>-18.11616741280296</v>
       </c>
       <c r="H14">
-        <v>1302.110951950385</v>
+        <v>1277.083397953168</v>
       </c>
       <c r="I14">
-        <v>-1043.08221292943</v>
+        <v>-1113.596668649261</v>
       </c>
       <c r="J14">
-        <v>1349.527422148192</v>
+        <v>1446.122076525765</v>
       </c>
       <c r="K14">
-        <v>2738.984239331078</v>
+        <v>2766.168806316803</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.0223535544624</v>
+        <v>102.6454522023806</v>
       </c>
       <c r="G15">
-        <v>-0.9325554118918818</v>
+        <v>-0.9283202829674776</v>
       </c>
       <c r="H15">
-        <v>1396.255162469624</v>
+        <v>1336.69250812019</v>
       </c>
       <c r="I15">
-        <v>-1069.663090489395</v>
+        <v>-1074.449561822838</v>
       </c>
       <c r="J15">
-        <v>1376.338584970946</v>
+        <v>1429.363011731474</v>
       </c>
       <c r="K15">
-        <v>2859.902596172398</v>
+        <v>2824.398620326293</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.21460517009444</v>
+        <v>88.47905352676739</v>
       </c>
       <c r="G16">
-        <v>16.05795660994086</v>
+        <v>15.63929160218795</v>
       </c>
       <c r="H16">
-        <v>1389.163683101744</v>
+        <v>1432.498976246663</v>
       </c>
       <c r="I16">
-        <v>-997.1163279635574</v>
+        <v>-1030.514473454273</v>
       </c>
       <c r="J16">
-        <v>1342.721258143868</v>
+        <v>1350.180534132707</v>
       </c>
       <c r="K16">
-        <v>2798.002384386058</v>
+        <v>2946.998698921923</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>87.78270219821316</v>
+        <v>87.04551619076122</v>
       </c>
       <c r="G17">
-        <v>31.37959621509268</v>
+        <v>31.43620834664793</v>
       </c>
       <c r="H17">
-        <v>1452.069332246098</v>
+        <v>1424.676635436006</v>
       </c>
       <c r="I17">
-        <v>-952.3021316067124</v>
+        <v>-954.824336093089</v>
       </c>
       <c r="J17">
-        <v>1211.055163133952</v>
+        <v>1311.149365556792</v>
       </c>
       <c r="K17">
-        <v>3009.0933385132</v>
+        <v>3001.595255265825</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.58713134161448</v>
+        <v>81.26171427136438</v>
       </c>
       <c r="G18">
-        <v>47.74763275013034</v>
+        <v>49.31221107384496</v>
       </c>
       <c r="H18">
-        <v>1507.721066677119</v>
+        <v>1432.707806074528</v>
       </c>
       <c r="I18">
-        <v>-968.7642594580589</v>
+        <v>-943.4100422715109</v>
       </c>
       <c r="J18">
-        <v>1274.34066549581</v>
+        <v>1235.033175350813</v>
       </c>
       <c r="K18">
-        <v>2964.057913928786</v>
+        <v>3005.716802149588</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.00318500328933</v>
+        <v>76.84092612596427</v>
       </c>
       <c r="G19">
-        <v>66.28204765408465</v>
+        <v>62.28777482657862</v>
       </c>
       <c r="H19">
-        <v>1599.865534649597</v>
+        <v>1555.729579441111</v>
       </c>
       <c r="I19">
-        <v>-900.0366367548946</v>
+        <v>-895.5686907522407</v>
       </c>
       <c r="J19">
-        <v>1156.480342151309</v>
+        <v>1224.611132377015</v>
       </c>
       <c r="K19">
-        <v>3185.140517270988</v>
+        <v>2965.40253648196</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.82102264643628</v>
+        <v>75.0786645038003</v>
       </c>
       <c r="G20">
-        <v>79.43316089330376</v>
+        <v>83.83155030901086</v>
       </c>
       <c r="H20">
-        <v>1609.575153460739</v>
+        <v>1603.673461835096</v>
       </c>
       <c r="I20">
-        <v>-826.1701251515665</v>
+        <v>-820.866141767016</v>
       </c>
       <c r="J20">
-        <v>1167.391528138814</v>
+        <v>1071.131461538005</v>
       </c>
       <c r="K20">
-        <v>3154.847917742519</v>
+        <v>3254.87159166027</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.26918860741768</v>
+        <v>68.33948416284325</v>
       </c>
       <c r="G21">
-        <v>97.61801970408663</v>
+        <v>98.252493374455</v>
       </c>
       <c r="H21">
-        <v>1543.701782138573</v>
+        <v>1643.268394412858</v>
       </c>
       <c r="I21">
-        <v>-822.973765274349</v>
+        <v>-776.4958110338418</v>
       </c>
       <c r="J21">
-        <v>1118.02872385194</v>
+        <v>1027.449398191266</v>
       </c>
       <c r="K21">
-        <v>3233.156554987858</v>
+        <v>3227.267255784193</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>71.39417568927325</v>
+        <v>66.32743087104588</v>
       </c>
       <c r="G22">
-        <v>110.1027530325611</v>
+        <v>113.8945176915145</v>
       </c>
       <c r="H22">
-        <v>1536.536029725929</v>
+        <v>1597.183405009675</v>
       </c>
       <c r="I22">
-        <v>-748.1083362479158</v>
+        <v>-760.1399532182636</v>
       </c>
       <c r="J22">
-        <v>1003.243156465231</v>
+        <v>989.2523132377249</v>
       </c>
       <c r="K22">
-        <v>3229.113836614329</v>
+        <v>3042.063536882571</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.41394458494025</v>
+        <v>68.82639928799207</v>
       </c>
       <c r="G23">
-        <v>129.3241013648714</v>
+        <v>127.7264739294966</v>
       </c>
       <c r="H23">
-        <v>1688.37471655279</v>
+        <v>1586.500557759085</v>
       </c>
       <c r="I23">
-        <v>-690.3740012396104</v>
+        <v>-698.7548750015919</v>
       </c>
       <c r="J23">
-        <v>1009.482408822826</v>
+        <v>970.3011492584027</v>
       </c>
       <c r="K23">
-        <v>3142.084257716896</v>
+        <v>3051.599661920833</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.58135520120608</v>
+        <v>64.38478045860371</v>
       </c>
       <c r="G24">
-        <v>152.607437214189</v>
+        <v>146.5129285995516</v>
       </c>
       <c r="H24">
-        <v>1693.128715015304</v>
+        <v>1673.138688012192</v>
       </c>
       <c r="I24">
-        <v>-632.5218635507404</v>
+        <v>-639.5290667664814</v>
       </c>
       <c r="J24">
-        <v>914.1276774741226</v>
+        <v>950.3546142095072</v>
       </c>
       <c r="K24">
-        <v>3243.195905279915</v>
+        <v>3036.343579388394</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.41041454473289</v>
+        <v>59.65836227039697</v>
       </c>
       <c r="G25">
-        <v>170.2321337658826</v>
+        <v>159.0685354834836</v>
       </c>
       <c r="H25">
-        <v>1676.002470347575</v>
+        <v>1751.582359544419</v>
       </c>
       <c r="I25">
-        <v>-607.0251361052872</v>
+        <v>-580.124579218628</v>
       </c>
       <c r="J25">
-        <v>867.946140189158</v>
+        <v>848.867945684754</v>
       </c>
       <c r="K25">
-        <v>3303.397132352778</v>
+        <v>3207.264507008859</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>62.0503679727081</v>
+        <v>62.11472240301652</v>
       </c>
       <c r="G26">
-        <v>187.5610831608158</v>
+        <v>174.4670459161255</v>
       </c>
       <c r="H26">
-        <v>1725.853357655958</v>
+        <v>1726.610171906736</v>
       </c>
       <c r="I26">
-        <v>-565.1133047462794</v>
+        <v>-552.6686361416159</v>
       </c>
       <c r="J26">
-        <v>804.5970504932883</v>
+        <v>845.269684730685</v>
       </c>
       <c r="K26">
-        <v>3227.258754147265</v>
+        <v>3085.476248325646</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.30970090996278</v>
+        <v>59.40085183701304</v>
       </c>
       <c r="G27">
-        <v>193.6468524585896</v>
+        <v>188.5438856392954</v>
       </c>
       <c r="H27">
-        <v>1768.141730917885</v>
+        <v>1653.876808344737</v>
       </c>
       <c r="I27">
-        <v>-513.4203034220016</v>
+        <v>-488.5838181177065</v>
       </c>
       <c r="J27">
-        <v>756.0244401456747</v>
+        <v>809.1660514329681</v>
       </c>
       <c r="K27">
-        <v>3050.092206324791</v>
+        <v>2905.592689026488</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.84913889077454</v>
+        <v>58.6913509071337</v>
       </c>
       <c r="G28">
-        <v>207.6426917307393</v>
+        <v>205.5367214933107</v>
       </c>
       <c r="H28">
-        <v>1674.076725057189</v>
+        <v>1778.166228697346</v>
       </c>
       <c r="I28">
-        <v>-432.1792289652695</v>
+        <v>-420.6877469277531</v>
       </c>
       <c r="J28">
-        <v>737.8180101699745</v>
+        <v>712.7041612486976</v>
       </c>
       <c r="K28">
-        <v>2933.53096231251</v>
+        <v>3045.652321238543</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.60900312276736</v>
+        <v>53.74699642955281</v>
       </c>
       <c r="G29">
-        <v>230.9763698338771</v>
+        <v>224.6088754795054</v>
       </c>
       <c r="H29">
-        <v>1717.64101700868</v>
+        <v>1805.796726588776</v>
       </c>
       <c r="I29">
-        <v>-396.9980371842732</v>
+        <v>-383.5794426514526</v>
       </c>
       <c r="J29">
-        <v>671.9223155923791</v>
+        <v>718.1975658529212</v>
       </c>
       <c r="K29">
-        <v>2938.535817039907</v>
+        <v>2993.827391812363</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.12402614292834</v>
+        <v>56.34407512626881</v>
       </c>
       <c r="G30">
-        <v>255.461541092387</v>
+        <v>255.0165038429817</v>
       </c>
       <c r="H30">
-        <v>1824.116428073988</v>
+        <v>1795.361693194118</v>
       </c>
       <c r="I30">
-        <v>-337.2496965448939</v>
+        <v>-329.8714434670503</v>
       </c>
       <c r="J30">
-        <v>664.6086213152968</v>
+        <v>624.2911952856789</v>
       </c>
       <c r="K30">
-        <v>2677.742187629141</v>
+        <v>2877.452424237816</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.00349482646016</v>
+        <v>53.56512117909744</v>
       </c>
       <c r="G31">
-        <v>263.9241018514682</v>
+        <v>257.3141493726691</v>
       </c>
       <c r="H31">
-        <v>1688.398700654536</v>
+        <v>1804.491896365572</v>
       </c>
       <c r="I31">
-        <v>-262.1526537611441</v>
+        <v>-254.6104163633492</v>
       </c>
       <c r="J31">
-        <v>583.6164705146567</v>
+        <v>571.6519809250691</v>
       </c>
       <c r="K31">
-        <v>2555.721854372957</v>
+        <v>2537.469284998733</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.35393536843895</v>
+        <v>49.88591799345257</v>
       </c>
       <c r="G32">
-        <v>278.6183339440418</v>
+        <v>268.9681873292211</v>
       </c>
       <c r="H32">
-        <v>1764.009625180747</v>
+        <v>1768.449252804058</v>
       </c>
       <c r="I32">
-        <v>-201.0701936212602</v>
+        <v>-200.2422691786245</v>
       </c>
       <c r="J32">
-        <v>528.1787801942447</v>
+        <v>547.769366912703</v>
       </c>
       <c r="K32">
-        <v>2576.154974411368</v>
+        <v>2551.846979422982</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.42424184197634</v>
+        <v>50.10846493144766</v>
       </c>
       <c r="G33">
-        <v>294.7577449344022</v>
+        <v>300.5441766497891</v>
       </c>
       <c r="H33">
-        <v>1790.105155115272</v>
+        <v>1813.836176511491</v>
       </c>
       <c r="I33">
-        <v>-141.9154087035972</v>
+        <v>-140.957160338826</v>
       </c>
       <c r="J33">
-        <v>515.4724611043839</v>
+        <v>487.2633733217344</v>
       </c>
       <c r="K33">
-        <v>2294.641730790438</v>
+        <v>2259.131667058117</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.34393016339338</v>
+        <v>49.7686079648628</v>
       </c>
       <c r="G34">
-        <v>299.140243303691</v>
+        <v>306.5229836453145</v>
       </c>
       <c r="H34">
-        <v>1803.16139283809</v>
+        <v>1862.603178696522</v>
       </c>
       <c r="I34">
-        <v>-87.39895001798199</v>
+        <v>-86.23119290881074</v>
       </c>
       <c r="J34">
-        <v>456.4444127503994</v>
+        <v>425.5195719461364</v>
       </c>
       <c r="K34">
-        <v>2196.838342778578</v>
+        <v>2131.014265579075</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.4751851181461</v>
+        <v>49.80918772985098</v>
       </c>
       <c r="G35">
-        <v>340.3790315123975</v>
+        <v>335.0777291854177</v>
       </c>
       <c r="H35">
-        <v>1907.420634507645</v>
+        <v>1738.104952885278</v>
       </c>
       <c r="I35">
-        <v>-18.96688540187009</v>
+        <v>-18.72069568238562</v>
       </c>
       <c r="J35">
-        <v>392.1658735944626</v>
+        <v>387.5103337581148</v>
       </c>
       <c r="K35">
-        <v>2048.663375604797</v>
+        <v>2075.838573320739</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.38487452383178</v>
+        <v>47.28428734496062</v>
       </c>
       <c r="G36">
-        <v>332.5040674999261</v>
+        <v>339.7491558931883</v>
       </c>
       <c r="H36">
-        <v>1896.75295320916</v>
+        <v>1912.358596204062</v>
       </c>
       <c r="I36">
-        <v>46.36367259427486</v>
+        <v>46.26808931131487</v>
       </c>
       <c r="J36">
-        <v>344.4620934399522</v>
+        <v>334.1477114908926</v>
       </c>
       <c r="K36">
-        <v>1872.534902205852</v>
+        <v>1905.199528791862</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.80195752502613</v>
+        <v>46.60820602169224</v>
       </c>
       <c r="G37">
-        <v>344.7143367027892</v>
+        <v>360.4637961207011</v>
       </c>
       <c r="H37">
-        <v>1852.827644649895</v>
+        <v>1864.19517184027</v>
       </c>
       <c r="I37">
-        <v>110.2484312235414</v>
+        <v>112.0229165491824</v>
       </c>
       <c r="J37">
-        <v>302.2498683425806</v>
+        <v>290.6740880387315</v>
       </c>
       <c r="K37">
-        <v>1562.776131158989</v>
+        <v>1663.761594971885</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.21053328125927</v>
+        <v>46.34032676162095</v>
       </c>
       <c r="G38">
-        <v>369.1644850342464</v>
+        <v>381.6132743403993</v>
       </c>
       <c r="H38">
-        <v>1900.503354589811</v>
+        <v>1926.99543811681</v>
       </c>
       <c r="I38">
-        <v>178.2468626422263</v>
+        <v>183.9211862353459</v>
       </c>
       <c r="J38">
-        <v>238.7341225105113</v>
+        <v>259.8328461729593</v>
       </c>
       <c r="K38">
-        <v>1370.583446232993</v>
+        <v>1424.554136639172</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.83307966676475</v>
+        <v>44.77566838921743</v>
       </c>
       <c r="G39">
-        <v>390.2919175805963</v>
+        <v>406.6456735316108</v>
       </c>
       <c r="H39">
-        <v>1927.538408460645</v>
+        <v>1810.889286579567</v>
       </c>
       <c r="I39">
-        <v>260.005516246612</v>
+        <v>266.0694041355251</v>
       </c>
       <c r="J39">
-        <v>208.2647440944268</v>
+        <v>199.5959226295113</v>
       </c>
       <c r="K39">
-        <v>1117.889271951164</v>
+        <v>1116.510104598539</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.71531856137248</v>
+        <v>44.82448901253702</v>
       </c>
       <c r="G40">
-        <v>406.6207177342815</v>
+        <v>406.2762798555327</v>
       </c>
       <c r="H40">
-        <v>1828.669959708659</v>
+        <v>1792.766819864758</v>
       </c>
       <c r="I40">
-        <v>340.4825955971552</v>
+        <v>314.5930770490115</v>
       </c>
       <c r="J40">
-        <v>154.5702999321449</v>
+        <v>149.3233292013983</v>
       </c>
       <c r="K40">
-        <v>906.0624988070158</v>
+        <v>856.076394504715</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.33123687036176</v>
+        <v>41.97322374589922</v>
       </c>
       <c r="G41">
-        <v>421.1476694820431</v>
+        <v>427.5196696992502</v>
       </c>
       <c r="H41">
-        <v>1789.054976480644</v>
+        <v>1917.26850842464</v>
       </c>
       <c r="I41">
-        <v>421.1708249470864</v>
+        <v>408.561440105267</v>
       </c>
       <c r="J41">
-        <v>105.8860786936395</v>
+        <v>106.3118373111191</v>
       </c>
       <c r="K41">
-        <v>613.2493444869709</v>
+        <v>599.7591337204389</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.49090875973909</v>
+        <v>41.63259787927334</v>
       </c>
       <c r="G42">
-        <v>461.1534393740454</v>
+        <v>449.7651463299791</v>
       </c>
       <c r="H42">
-        <v>1922.430144222483</v>
+        <v>1924.983546803385</v>
       </c>
       <c r="I42">
-        <v>488.9786402685703</v>
+        <v>461.3262872061895</v>
       </c>
       <c r="J42">
-        <v>55.78060137191411</v>
+        <v>54.50828390232009</v>
       </c>
       <c r="K42">
-        <v>322.0685356666565</v>
+        <v>344.6864874255705</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.20266363178332</v>
+        <v>41.96650270622235</v>
       </c>
       <c r="G43">
-        <v>474.4727258479576</v>
+        <v>452.2278315394768</v>
       </c>
       <c r="H43">
-        <v>1835.410500266136</v>
+        <v>1979.070786697028</v>
       </c>
       <c r="I43">
-        <v>565.4884512060472</v>
+        <v>567.7213355948171</v>
       </c>
       <c r="J43">
-        <v>5.424827262958703</v>
+        <v>5.259771793814051</v>
       </c>
       <c r="K43">
-        <v>32.84732835013192</v>
+        <v>32.8853626073836</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.5318493239272</v>
+        <v>43.16573908439658</v>
       </c>
       <c r="G44">
-        <v>472.232433372303</v>
+        <v>488.6875848413251</v>
       </c>
       <c r="H44">
-        <v>1857.253475846213</v>
+        <v>1996.784480042091</v>
       </c>
       <c r="I44">
-        <v>612.1792536695913</v>
+        <v>624.1953448726453</v>
       </c>
       <c r="J44">
-        <v>-43.86711282428605</v>
+        <v>-45.00881208046368</v>
       </c>
       <c r="K44">
-        <v>-281.9468382717901</v>
+        <v>-278.9751981828617</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.55974257173798</v>
+        <v>42.08972681220874</v>
       </c>
       <c r="G45">
-        <v>489.2783365405876</v>
+        <v>512.6068293855553</v>
       </c>
       <c r="H45">
-        <v>1987.649652513389</v>
+        <v>1930.421755750338</v>
       </c>
       <c r="I45">
-        <v>687.1043040229805</v>
+        <v>755.8310893301671</v>
       </c>
       <c r="J45">
-        <v>-96.11957685728893</v>
+        <v>-88.53050882350078</v>
       </c>
       <c r="K45">
-        <v>-636.328195339181</v>
+        <v>-641.7008513707717</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.03191841131425</v>
+        <v>42.13285516636471</v>
       </c>
       <c r="G46">
-        <v>508.6102299535218</v>
+        <v>534.4322037889692</v>
       </c>
       <c r="H46">
-        <v>1924.101489147542</v>
+        <v>1959.914689209295</v>
       </c>
       <c r="I46">
-        <v>816.8963309501905</v>
+        <v>784.6050662312306</v>
       </c>
       <c r="J46">
-        <v>-138.3614522851916</v>
+        <v>-139.2637064554876</v>
       </c>
       <c r="K46">
-        <v>-999.6662334376634</v>
+        <v>-969.8618954884664</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.12977056307054</v>
+        <v>41.43230606033377</v>
       </c>
       <c r="G47">
-        <v>536.1578467671944</v>
+        <v>537.5788841852467</v>
       </c>
       <c r="H47">
-        <v>1963.194592371002</v>
+        <v>1892.382845449768</v>
       </c>
       <c r="I47">
-        <v>860.2076865637237</v>
+        <v>919.8139274897575</v>
       </c>
       <c r="J47">
-        <v>-194.806222922413</v>
+        <v>-198.6916796387853</v>
       </c>
       <c r="K47">
-        <v>-1368.221601264196</v>
+        <v>-1357.488252371109</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.89790949800662</v>
+        <v>38.43368713786948</v>
       </c>
       <c r="G48">
-        <v>558.6218124763968</v>
+        <v>553.8486511429446</v>
       </c>
       <c r="H48">
-        <v>1846.539307657991</v>
+        <v>1874.647758392874</v>
       </c>
       <c r="I48">
-        <v>955.8708826779659</v>
+        <v>998.0976756417405</v>
       </c>
       <c r="J48">
-        <v>-244.7382814018398</v>
+        <v>-245.4721535153682</v>
       </c>
       <c r="K48">
-        <v>-1695.403151956741</v>
+        <v>-1721.729415688204</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.14624164204682</v>
+        <v>40.68851809703009</v>
       </c>
       <c r="G49">
-        <v>556.5481541082314</v>
+        <v>545.2137931570999</v>
       </c>
       <c r="H49">
-        <v>1979.561396634498</v>
+        <v>1862.475728151502</v>
       </c>
       <c r="I49">
-        <v>1085.464984090929</v>
+        <v>1085.91446550984</v>
       </c>
       <c r="J49">
-        <v>-293.6447551122293</v>
+        <v>-277.6882287390135</v>
       </c>
       <c r="K49">
-        <v>-2087.219247840059</v>
+        <v>-2043.82643298804</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.75911166213963</v>
+        <v>40.28477021346311</v>
       </c>
       <c r="G50">
-        <v>578.6939207267936</v>
+        <v>599.0032444452787</v>
       </c>
       <c r="H50">
-        <v>2022.309355040804</v>
+        <v>2027.363154576801</v>
       </c>
       <c r="I50">
-        <v>1174.568734711783</v>
+        <v>1164.09450963998</v>
       </c>
       <c r="J50">
-        <v>-346.3491588225842</v>
+        <v>-349.5057798668193</v>
       </c>
       <c r="K50">
-        <v>-2433.575154066701</v>
+        <v>-2447.988383186012</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.71899247477801</v>
+        <v>38.26384156688668</v>
       </c>
       <c r="G51">
-        <v>579.2250723411593</v>
+        <v>607.4948210865409</v>
       </c>
       <c r="H51">
-        <v>1894.798845637633</v>
+        <v>1887.97461587706</v>
       </c>
       <c r="I51">
-        <v>1316.024495712818</v>
+        <v>1211.152905476785</v>
       </c>
       <c r="J51">
-        <v>-365.850563515281</v>
+        <v>-368.5826672443459</v>
       </c>
       <c r="K51">
-        <v>-2882.496460784014</v>
+        <v>-2880.326103312123</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.93955839532886</v>
+        <v>36.06850987297278</v>
       </c>
       <c r="G52">
-        <v>585.4498367436209</v>
+        <v>617.5827118719241</v>
       </c>
       <c r="H52">
-        <v>2046.815533781896</v>
+        <v>1929.894450813458</v>
       </c>
       <c r="I52">
-        <v>1344.216746720857</v>
+        <v>1341.47642666817</v>
       </c>
       <c r="J52">
-        <v>-428.8412251271414</v>
+        <v>-414.70859253649</v>
       </c>
       <c r="K52">
-        <v>-3475.325226950339</v>
+        <v>-3528.560963763462</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.22756501280219</v>
+        <v>38.33322580381245</v>
       </c>
       <c r="G53">
-        <v>636.3317174942542</v>
+        <v>597.4164003935332</v>
       </c>
       <c r="H53">
-        <v>1987.661714539471</v>
+        <v>1920.049847627033</v>
       </c>
       <c r="I53">
-        <v>1516.678584103068</v>
+        <v>1416.788169905883</v>
       </c>
       <c r="J53">
-        <v>-470.9049296971443</v>
+        <v>-491.9639831634241</v>
       </c>
       <c r="K53">
-        <v>-3977.237967510803</v>
+        <v>-3661.816538256337</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.30548646255279</v>
+        <v>37.77842847816758</v>
       </c>
       <c r="G54">
-        <v>632.9836889577997</v>
+        <v>668.2840340886181</v>
       </c>
       <c r="H54">
-        <v>2003.102555885737</v>
+        <v>2001.910817879936</v>
       </c>
       <c r="I54">
-        <v>1568.663682784767</v>
+        <v>1480.731925217191</v>
       </c>
       <c r="J54">
-        <v>-522.6830825648534</v>
+        <v>-509.4981528457816</v>
       </c>
       <c r="K54">
-        <v>-4291.958684574956</v>
+        <v>-4347.657622347844</v>
       </c>
     </row>
   </sheetData>
